--- a/base/datos.xlsx
+++ b/base/datos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="20">
   <si>
     <t>Nombre del Cliente</t>
   </si>
@@ -40,28 +40,40 @@
     <t>Valor Total de Deuda</t>
   </si>
   <si>
+    <t>Karla</t>
+  </si>
+  <si>
     <t>michael</t>
   </si>
   <si>
-    <t>dolly</t>
-  </si>
-  <si>
-    <t>cuaderno</t>
+    <t>karla</t>
+  </si>
+  <si>
+    <t>termo</t>
   </si>
   <si>
     <t>bolso</t>
   </si>
   <si>
-    <t>termo</t>
-  </si>
-  <si>
-    <t>cartera</t>
-  </si>
-  <si>
-    <t>pijama</t>
+    <t>camisa</t>
+  </si>
+  <si>
+    <t>jean</t>
+  </si>
+  <si>
+    <t>peluche</t>
+  </si>
+  <si>
+    <t>carro</t>
+  </si>
+  <si>
+    <t>perfume</t>
   </si>
   <si>
     <t>2024-04-06</t>
+  </si>
+  <si>
+    <t>2024-04-07</t>
   </si>
 </sst>
 </file>
@@ -419,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,71 +468,74 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2">
-        <v>3000</v>
+        <v>17000</v>
       </c>
       <c r="E2">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G2">
-        <v>1000</v>
+        <v>7000</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>8</v>
       </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>17000</v>
       </c>
       <c r="E3">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G3">
-        <v>-1000</v>
+        <v>7000</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="E4">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G4">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -528,48 +543,48 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>17000</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G5">
-        <v>2000</v>
+        <v>-10000</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>-10000</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>45000</v>
       </c>
       <c r="E6">
         <v>20000</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G6">
-        <v>-20000</v>
+        <v>25000</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -580,25 +595,25 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D7">
+        <v>70000</v>
+      </c>
+      <c r="E7">
+        <v>50000</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7">
         <v>20000</v>
       </c>
-      <c r="E7">
-        <v>2000</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7">
-        <v>18000</v>
-      </c>
       <c r="H7">
-        <v>33000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -606,47 +621,419 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>45000</v>
+        <v>75000</v>
       </c>
       <c r="E8">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G8">
         <v>15000</v>
       </c>
       <c r="H8">
-        <v>33000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="E9">
-        <v>2000</v>
+        <v>60000</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G9">
-        <v>-2000</v>
+        <v>15000</v>
       </c>
       <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>75000</v>
+      </c>
+      <c r="E10">
+        <v>60000</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10">
+        <v>15000</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>90000</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11">
+        <v>-90000</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>15000</v>
+      </c>
+      <c r="E12">
+        <v>10000</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12">
+        <v>5000</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13">
+        <v>15000</v>
+      </c>
+      <c r="E13">
+        <v>10000</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13">
+        <v>5000</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14">
+        <v>15000</v>
+      </c>
+      <c r="E14">
+        <v>10000</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14">
+        <v>5000</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15">
+        <v>15000</v>
+      </c>
+      <c r="E15">
+        <v>10000</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15">
+        <v>5000</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16">
+        <v>15000</v>
+      </c>
+      <c r="E16">
+        <v>10000</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16">
+        <v>5000</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17">
+        <v>15000</v>
+      </c>
+      <c r="E17">
+        <v>10000</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17">
+        <v>5000</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18">
+        <v>50000</v>
+      </c>
+      <c r="E18">
+        <v>15000</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18">
+        <v>35000</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>10000</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19">
+        <v>-10000</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>10000</v>
+      </c>
+      <c r="F20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20">
+        <v>-10000</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>10000</v>
+      </c>
+      <c r="F21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21">
+        <v>-10000</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>10000</v>
+      </c>
+      <c r="F22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22">
+        <v>-10000</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>10000</v>
+      </c>
+      <c r="F23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23">
+        <v>-10000</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>20000</v>
+      </c>
+      <c r="F24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24">
+        <v>-20000</v>
+      </c>
+      <c r="H24">
         <v>0</v>
       </c>
     </row>

--- a/base/datos.xlsx
+++ b/base/datos.xlsx
@@ -1,75 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Personal\Desktop\almacen\base\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5C4982-F37C-4398-A0E1-F3E1A08D6767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Nombre del Cliente</t>
-  </si>
-  <si>
-    <t>Producto</t>
-  </si>
-  <si>
-    <t>Fecha de Compra</t>
-  </si>
-  <si>
-    <t>Valor del Producto</t>
-  </si>
-  <si>
-    <t>Valor Abonado</t>
-  </si>
-  <si>
-    <t>Fecha de Abono</t>
-  </si>
-  <si>
-    <t>Valor Restante</t>
-  </si>
-  <si>
-    <t>Valor Total de Deuda</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -84,50 +46,100 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -165,7 +177,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -199,7 +211,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -234,10 +245,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -410,42 +420,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="A2:H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre del Cliente</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Producto</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Fecha de Compra</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Valor del Producto</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Valor Abonado</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Fecha de Abono</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Valor Restante</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Valor Total de Deuda</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>